--- a/porformance/zg_作业.xlsx
+++ b/porformance/zg_作业.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roming vault\Log\life\jobs\南科大\传输现象助教\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roming vault\Log\life\jobs\南科大\传输现象助教\transport phenomena\problems and solutions\porformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -885,35 +885,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>9月</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>29日</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -999,6 +970,18 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2099,7 +2082,7 @@
   <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2177,7 +2160,7 @@
         <v>262</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -2236,10 +2219,10 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2332,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
@@ -2364,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
@@ -2456,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2488,7 +2471,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -2520,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
@@ -2552,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
@@ -2584,9 +2567,11 @@
         <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2646,7 +2631,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
@@ -2678,7 +2663,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -2710,7 +2695,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2742,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2774,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
@@ -2806,7 +2791,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
@@ -2838,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
@@ -2930,7 +2915,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
@@ -2962,7 +2947,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
@@ -2994,7 +2979,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
@@ -3026,7 +3011,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
@@ -3058,7 +3043,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
@@ -3090,7 +3075,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3122,7 +3107,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -3154,7 +3139,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
@@ -3216,7 +3201,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
@@ -3248,7 +3233,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
@@ -3280,7 +3265,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>

--- a/porformance/zg_作业.xlsx
+++ b/porformance/zg_作业.xlsx
@@ -17,12 +17,12 @@
     <sheet name="GROUP3" sheetId="3" r:id="rId3"/>
     <sheet name="GROUP4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="294">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -984,12 +984,63 @@
     <t>22</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1178,6 +1229,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1681,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1731,6 +1789,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2079,10 +2145,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:AB133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2094,7 +2160,7 @@
     <col min="22" max="22" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2186,7 @@
       <c r="U1" s="8"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2212,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2274,7 +2340,7 @@
       </c>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2284,7 +2350,7 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2303,8 +2369,11 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2314,7 +2383,7 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E6" s="5"/>
@@ -2335,8 +2404,11 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2346,7 +2418,7 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="19" t="s">
         <v>278</v>
       </c>
       <c r="E7" s="5"/>
@@ -2367,8 +2439,11 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2378,7 +2453,7 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2397,8 +2472,12 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB8">
+        <f>SUM(AB5:AB7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2408,7 +2487,7 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2428,7 +2507,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2438,7 +2517,7 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="19" t="s">
         <v>265</v>
       </c>
       <c r="E10" s="5"/>
@@ -2460,7 +2539,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2470,7 +2549,7 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="19" t="s">
         <v>272</v>
       </c>
       <c r="E11" s="5"/>
@@ -2492,7 +2571,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2502,7 +2581,7 @@
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="19" t="s">
         <v>279</v>
       </c>
       <c r="E12" s="5"/>
@@ -2524,7 +2603,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2534,10 +2613,12 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2556,7 +2637,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2566,7 +2647,7 @@
       <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="19" t="s">
         <v>270</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2590,7 +2671,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2600,7 +2681,7 @@
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2620,7 +2701,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2630,7 +2711,7 @@
       <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E16" s="5"/>
@@ -2662,7 +2743,7 @@
       <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="19" t="s">
         <v>277</v>
       </c>
       <c r="E17" s="5"/>
@@ -2694,10 +2775,12 @@
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2726,10 +2809,12 @@
       <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2758,7 +2843,7 @@
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="19" t="s">
         <v>277</v>
       </c>
       <c r="E20" s="5"/>
@@ -2790,10 +2875,12 @@
       <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2822,7 +2909,7 @@
       <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E22" s="5"/>
@@ -2854,7 +2941,7 @@
       <c r="C23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2884,7 +2971,7 @@
       <c r="C24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2914,10 +3001,12 @@
       <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2946,7 +3035,7 @@
       <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="19" t="s">
         <v>265</v>
       </c>
       <c r="E26" s="5"/>
@@ -2978,10 +3067,12 @@
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3010,10 +3101,12 @@
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3042,7 +3135,7 @@
       <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E29" s="5"/>
@@ -3074,10 +3167,12 @@
       <c r="C30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3106,7 +3201,7 @@
       <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="19" t="s">
         <v>275</v>
       </c>
       <c r="E31" s="5"/>
@@ -3138,7 +3233,7 @@
       <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="19" t="s">
         <v>276</v>
       </c>
       <c r="E32" s="5"/>
@@ -3170,7 +3265,7 @@
       <c r="C33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3200,10 +3295,12 @@
       <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3232,7 +3329,7 @@
       <c r="C35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="19" t="s">
         <v>274</v>
       </c>
       <c r="E35" s="5"/>
@@ -3264,7 +3361,7 @@
       <c r="C36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="19" t="s">
         <v>274</v>
       </c>
       <c r="E36" s="5"/>
@@ -3286,7 +3383,10 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="D37" s="17"/>
+    </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
